--- a/Applications.xlsx
+++ b/Applications.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rosa Maessen\Documents\Master\Jaar 2\Graduation project\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6604376D-4B2E-4FC2-94F1-BE4708041946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EBD866-1A88-462F-A1F6-2050DBC64628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5F41726A-ECE3-4DD0-AE62-AEF683053711}"/>
   </bookViews>
@@ -940,7 +940,22 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AE36DCD0-4848-4280-953C-20032A9CCBCB}" name="Tabel5" displayName="Tabel5" ref="A1:L43" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:L43" xr:uid="{AE36DCD0-4848-4280-953C-20032A9CCBCB}"/>
+  <autoFilter ref="A1:L43" xr:uid="{AE36DCD0-4848-4280-953C-20032A9CCBCB}">
+    <filterColumn colId="5">
+      <filters blank="1">
+        <filter val="Online"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Assembly task"/>
+        <filter val="Chair Assemlby"/>
+        <filter val="Peg-in-hole"/>
+        <filter val="Peg-in-hole task"/>
+        <filter val="pick-place/ pouring/ unscrewing"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{4D4E3525-188F-4D1A-A503-8CBF0F5CF337}" name="Author (1)" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{C7B4C9A3-B099-436E-99DF-492D1A326C08}" name="Title" dataDxfId="10"/>
@@ -1258,14 +1273,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C27207-BCBA-4FC2-AB7F-077128DBCC4E}">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="5" customWidth="1"/>
     <col min="3" max="4" width="9.140625" style="5"/>
     <col min="5" max="5" width="42.7109375" style="5" bestFit="1" customWidth="1"/>
@@ -1316,7 +1331,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
@@ -1386,7 +1401,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -1457,7 +1472,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>56</v>
       </c>
@@ -1495,7 +1510,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1512,7 +1527,7 @@
         <v>152</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>103</v>
@@ -1565,7 +1580,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
@@ -1600,7 +1615,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>60</v>
       </c>
@@ -1635,7 +1650,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>62</v>
       </c>
@@ -1708,7 +1723,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>96</v>
       </c>
@@ -1817,7 +1832,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>64</v>
       </c>
@@ -1850,7 +1865,7 @@
       </c>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>66</v>
       </c>
@@ -1888,7 +1903,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>188</v>
       </c>
@@ -1923,7 +1938,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>191</v>
       </c>
@@ -1961,7 +1976,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>14</v>
       </c>
@@ -1994,7 +2009,7 @@
       </c>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>68</v>
       </c>
@@ -2030,7 +2045,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>68</v>
       </c>
@@ -2138,7 +2153,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>16</v>
       </c>
@@ -2173,7 +2188,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>73</v>
       </c>
@@ -2211,7 +2226,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>98</v>
       </c>
@@ -2246,7 +2261,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>18</v>
       </c>
@@ -2281,7 +2296,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>92</v>
       </c>
@@ -2314,7 +2329,7 @@
       </c>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>20</v>
       </c>
@@ -2349,7 +2364,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>20</v>
       </c>
@@ -2384,7 +2399,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>22</v>
       </c>
@@ -2457,7 +2472,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>75</v>
       </c>
@@ -2478,7 +2493,7 @@
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>75</v>
       </c>
@@ -2499,7 +2514,7 @@
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>10</v>
       </c>
@@ -2532,7 +2547,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>10</v>
       </c>
@@ -2563,7 +2578,7 @@
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>78</v>
       </c>
@@ -2584,7 +2599,7 @@
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>78</v>
       </c>
@@ -2605,7 +2620,7 @@
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>0</v>
       </c>
@@ -2632,7 +2647,7 @@
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>81</v>
       </c>
@@ -2653,7 +2668,7 @@
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>83</v>
       </c>
@@ -2674,7 +2689,7 @@
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>85</v>
       </c>

--- a/Applications.xlsx
+++ b/Applications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rosa Maessen\Documents\Master\Jaar 2\Graduation project\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EBD866-1A88-462F-A1F6-2050DBC64628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3577B14-6BB2-4000-B28B-1A41D0A2528E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5F41726A-ECE3-4DD0-AE62-AEF683053711}"/>
   </bookViews>
@@ -948,11 +948,8 @@
     </filterColumn>
     <filterColumn colId="6">
       <filters>
-        <filter val="Assembly task"/>
-        <filter val="Chair Assemlby"/>
-        <filter val="Peg-in-hole"/>
-        <filter val="Peg-in-hole task"/>
-        <filter val="pick-place/ pouring/ unscrewing"/>
+        <filter val="Knot-tying/ Cutting soft tissue"/>
+        <filter val="Surgical task"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -1275,7 +1272,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G53" sqref="G53"/>
+      <selection pane="bottomLeft" activeCell="G61" sqref="G60:G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1366,7 +1363,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>52</v>
       </c>
@@ -1437,7 +1434,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>54</v>
       </c>
@@ -1545,7 +1542,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>58</v>
       </c>
@@ -1688,7 +1685,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>88</v>
       </c>
@@ -1759,7 +1756,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
@@ -1797,7 +1794,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>101</v>
       </c>
@@ -2080,7 +2077,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>71</v>
       </c>
@@ -2118,7 +2115,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>16</v>
       </c>
@@ -2329,7 +2326,7 @@
       </c>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>20</v>
       </c>
@@ -2364,7 +2361,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>20</v>
       </c>
@@ -2434,7 +2431,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>105</v>
       </c>
